--- a/biology/Zoologie/Autour_chanteur/Autour_chanteur.xlsx
+++ b/biology/Zoologie/Autour_chanteur/Autour_chanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melierax canorus
 L'Autour chanteur (Melierax canorus) est une espèce d'oiseaux de la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Mode de Chasse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guette depuis un perchoir et fond d'un vol rapide sur lézards, oiseaux, mammifères, ou gros insectes. Repart sur un nouveau perchoir ou tourne pour revenir au premier.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime Alimentaire est proche de celui des autres espèces du genre Melierax (Autour sombre et Autour à ailes grises).
 Son alimentation est composée principalement de lézards et de rongeurs comme les xerus. Elle comprend également des serpents, des insectes (bousiers, sauterelles et termites), des oiseaux et quelques petits mammifères (lièvre). Occasionnellement il capture aussi de petites tortues.
@@ -577,7 +593,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Afrique australe.
 </t>
